--- a/2-Analisis_de_Riesgos.xlsx
+++ b/2-Analisis_de_Riesgos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5AC36-85F1-443B-810F-E1A87B60CF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF49858-F12B-461E-94FC-1CC7DBB058C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Riesgos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Riesgo</t>
   </si>
@@ -65,27 +65,15 @@
     <t>1 a 2</t>
   </si>
   <si>
-    <t>Deuda tecnica</t>
-  </si>
-  <si>
     <t>Perfiles inadecuados en el equipo generando el desconocimiento del proceso y las tecnologias</t>
   </si>
   <si>
-    <t>Realizar capacitacion del equipo de las areas de desconocimiento</t>
-  </si>
-  <si>
     <t>Medio</t>
   </si>
   <si>
     <t>3 a 5</t>
   </si>
   <si>
-    <t>Mala estimación del TTM</t>
-  </si>
-  <si>
-    <t>Cambiar la estrategia de prueba para cumplir el requerimiento en los días limite.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alto </t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t>No llevar seguimiento del equipo y el avance con respecto a lo realizado</t>
   </si>
   <si>
-    <t>llevar acabo las ceremonias del marco agil (SCRUM)</t>
-  </si>
-  <si>
     <t>Falta de claridad en los requerimientos</t>
   </si>
   <si>
@@ -110,24 +95,9 @@
     <t>Solicitar reunion con el PO para un mayor entendimiento y a claraciones</t>
   </si>
   <si>
-    <t>Alta variacion de los requerimientos</t>
-  </si>
-  <si>
-    <t>Se encuentran en costante cambio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desde el inicio se definiran los requerimientos y en base a los definidos se trabajaran con ellos </t>
   </si>
   <si>
-    <t>Cambios en los recursos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta de personal </t>
-  </si>
-  <si>
-    <t>Se debe iniciar un plan de capacitacion o un plan kanguro para que el recurso sea un aporte y no una carga dentro del proyecto</t>
-  </si>
-  <si>
     <t>Cambios en los tiempos estipulados</t>
   </si>
   <si>
@@ -143,9 +113,6 @@
     <t>Existe el riesgo que el producto de software no sea compatible con algunos navegadores</t>
   </si>
   <si>
-    <t>Realizar pruebas de compatibilidad en los navegadores requeridos por el cliente (Chrome, Firefox) y en las versiones correctas detalladas en  eldocumento de criterios técnicos</t>
-  </si>
-  <si>
     <t>Producto</t>
   </si>
   <si>
@@ -155,15 +122,6 @@
     <t>La aplicacion debe ser de facil entendimiento para que las personas tengan facilidad de uso</t>
   </si>
   <si>
-    <t>Seguridad de la informacion</t>
-  </si>
-  <si>
-    <t>La informacion de los clientes es sensible, no debe ser modificada, eliminada tan solo alimentada o actualizada</t>
-  </si>
-  <si>
-    <t>Verificando que los roles esten debidamente asignados y configurados para poder acceder  a esta informacion con los diferentes permisos.</t>
-  </si>
-  <si>
     <t>Disposición de los elementos en la pantalla</t>
   </si>
   <si>
@@ -182,9 +140,6 @@
     <t xml:space="preserve">Verificar la respuesta de los diferentes procesos, teniendo en cuenta un tiempo máximo para notificar su estado de completado </t>
   </si>
   <si>
-    <t>No hay respuesta del aplicativo en escenarios de fallos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Existen situaciones de fallos en el aplicativo que no son contralados y perjudican su uso. </t>
   </si>
   <si>
@@ -230,47 +185,50 @@
     <t>R-011</t>
   </si>
   <si>
-    <t>R-012</t>
-  </si>
-  <si>
-    <t>R-013</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Existe el riesgo que los 15 días limite para el </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">time to market </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>no se cumplan.</t>
-    </r>
-  </si>
-  <si>
-    <t>Pruebas UAT,  aplicacion con usuario "nuevo"</t>
+    <t>Equipo con conocimientos básicos</t>
+  </si>
+  <si>
+    <t>Disponer de espacios de capacitacion par el equipo en las áreas de desconocimiento</t>
+  </si>
+  <si>
+    <t>Cambios en el alcance del proyecto</t>
+  </si>
+  <si>
+    <t>Existe el riesgo que los 15 días limite no se cumplan dedibo a adiciones en los requisitos del proceso.</t>
+  </si>
+  <si>
+    <t>Negociar con el cliente las restricciones del negocio que pueden modificarse, ya sea los recursos, el tiempo o el alcance y de esta forma modificar la estrategia del proceso.</t>
+  </si>
+  <si>
+    <t>Aplicar y mantener las ceremonias del marco ágil</t>
+  </si>
+  <si>
+    <t>Ambientes sin preparar o no entregados</t>
+  </si>
+  <si>
+    <t>Los ambientes de pruebas deben estar previamente configurados y listos para su uso, así como de todas las herramientas necesarias para llevar a cabo el proceso de pruebas</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Realizar pruebas de compatibilidad en los navegadores requeridos por el cliente (Chrome, Firefox) y en las versiones correctas detalladas en  el documento de criterios técnicos</t>
+  </si>
+  <si>
+    <t>Pruebas de usabilidad</t>
+  </si>
+  <si>
+    <t>El aplicativo no responde a escenarios de fallos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,13 +264,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -393,12 +344,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -443,6 +394,163 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -454,15 +562,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -472,41 +577,95 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -856,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I23"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -868,7 +1027,7 @@
     <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
@@ -882,449 +1041,401 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="1" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="15">
         <v>1</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="15">
         <f>F3*G3</f>
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <f>F4*G4</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <f>F5*G5</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <f>F6*G6</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="B7" s="34"/>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
+        <f>F7*G7</f>
+        <v>6</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="35"/>
+      <c r="C8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="21">
+        <v>3</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" ref="H8:H13" si="0">F8*G8</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="15">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+      <c r="C13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="21">
+        <v>3</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="D17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="G17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="13">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <f>F4*G4</f>
-        <v>3</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="13">
-        <v>3</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
-        <f>F5*G5</f>
-        <v>3</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="13">
-        <v>3</v>
-      </c>
-      <c r="G6" s="13">
-        <v>2</v>
-      </c>
-      <c r="H6" s="13">
-        <f>F6*G6</f>
-        <v>6</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="13">
-        <v>3</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <f>F7*G7</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="13">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13">
-        <v>2</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" ref="H8" si="0">F8*G8</f>
-        <v>6</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="13">
-        <v>3</v>
-      </c>
-      <c r="G9" s="13">
-        <v>2</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" ref="H9:H15" si="1">F9*G9</f>
-        <v>6</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+    <row r="20" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="13">
-        <v>3</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="13">
-        <v>3</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="13">
-        <v>3</v>
-      </c>
-      <c r="G15" s="13">
-        <v>2</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="D19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="G19" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="D21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="9">
-        <v>3</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="F2:H2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="4">
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="H3:H15">
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H13">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H15">
+  <conditionalFormatting sqref="H3:H13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>3</formula>
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H15">
+  <conditionalFormatting sqref="H3:H13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G18 F3:F15" xr:uid="{947CF420-AD2A-48FA-9957-799D5F7A0144}">
-      <formula1>$E$20:$E$22</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G16 F3:F13" xr:uid="{947CF420-AD2A-48FA-9957-799D5F7A0144}">
+      <formula1>$E$18:$E$20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2-Analisis_de_Riesgos.xlsx
+++ b/2-Analisis_de_Riesgos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF49858-F12B-461E-94FC-1CC7DBB058C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C55A31-433E-4BC0-A34B-35FEB12D8703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Riesgos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Riesgo</t>
   </si>
@@ -107,15 +107,6 @@
     <t>Se definen las pruebas a realizar de acuerdo a su criticidad.</t>
   </si>
   <si>
-    <t>Compatibilidad entre navegadores</t>
-  </si>
-  <si>
-    <t>Existe el riesgo que el producto de software no sea compatible con algunos navegadores</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
     <t>Usabilidad</t>
   </si>
   <si>
@@ -215,13 +206,19 @@
     <t>Proyecto</t>
   </si>
   <si>
-    <t>Realizar pruebas de compatibilidad en los navegadores requeridos por el cliente (Chrome, Firefox) y en las versiones correctas detalladas en  el documento de criterios técnicos</t>
-  </si>
-  <si>
     <t>Pruebas de usabilidad</t>
   </si>
   <si>
     <t>El aplicativo no responde a escenarios de fallos</t>
+  </si>
+  <si>
+    <t>Ingreso de caracteres especiales</t>
+  </si>
+  <si>
+    <t>El ingreso de caracteres especiales supone un riesgo para la integridad de los datos, teniendo en cuenta que los atacantes pueden utilizar combinaciones para alterar la información.</t>
+  </si>
+  <si>
+    <t>Verificar que en el campo de búsqueda no se puedan ingresar caracteres especiales - Prueba de seguridad</t>
   </si>
 </sst>
 </file>
@@ -349,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -553,6 +550,32 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -562,7 +585,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,9 +630,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -645,6 +665,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1043,40 +1072,40 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
-        <v>58</v>
+      <c r="B3" s="35" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>9</v>
@@ -1091,20 +1120,20 @@
         <f>F3*G3</f>
         <v>2</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>51</v>
+      <c r="I3" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
@@ -1116,14 +1145,14 @@
         <f>F4*G4</f>
         <v>3</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>54</v>
+      <c r="I4" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1141,14 +1170,14 @@
         <f>F5*G5</f>
         <v>3</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>55</v>
+      <c r="I5" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
@@ -1166,20 +1195,20 @@
         <f>F6*G6</f>
         <v>2</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="11">
         <v>3</v>
@@ -1191,91 +1220,89 @@
         <f>F7*G7</f>
         <v>6</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
-      <c r="C8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="21">
-        <v>3</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="F8" s="20">
+        <v>3</v>
+      </c>
+      <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <f t="shared" ref="H8:H13" si="0">F8*G8</f>
         <v>3</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36"/>
+      <c r="C9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="36"/>
+      <c r="C10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="15">
-        <v>3</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="12" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="36"/>
+      <c r="C11" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>28</v>
@@ -1284,79 +1311,79 @@
         <v>29</v>
       </c>
       <c r="F11" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="11">
-        <v>3</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
+    <row r="12" spans="2:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="36"/>
+      <c r="C12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="29">
+        <v>3</v>
+      </c>
+      <c r="G12" s="29">
+        <v>2</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="21">
-        <v>3</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="B13" s="37"/>
+      <c r="C13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="20">
+        <v>3</v>
+      </c>
+      <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>35</v>
+      <c r="I13" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="G17" s="29" t="s">
+      <c r="E17" s="34"/>
+      <c r="G17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -1404,7 +1431,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1461,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G16 F3:F13" xr:uid="{947CF420-AD2A-48FA-9957-799D5F7A0144}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F13 G3:G16" xr:uid="{947CF420-AD2A-48FA-9957-799D5F7A0144}">
       <formula1>$E$18:$E$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2-Analisis_de_Riesgos.xlsx
+++ b/2-Analisis_de_Riesgos.xlsx
@@ -8,12 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C55A31-433E-4BC0-A34B-35FEB12D8703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3B1E78-1257-4701-BE6A-C611916D5E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Riesgos" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimación" sheetId="2" r:id="rId2"/>
+    <sheet name="Factor de Ajuste" sheetId="5" r:id="rId3"/>
+    <sheet name="Alcance" sheetId="3" r:id="rId4"/>
+    <sheet name="Approach" sheetId="4" r:id="rId5"/>
+    <sheet name="Casos de Prueba" sheetId="8" r:id="rId6"/>
+    <sheet name="Evidencias" sheetId="6" r:id="rId7"/>
+    <sheet name="Bugtracker" sheetId="7" r:id="rId8"/>
+    <sheet name="Informe de Cierre" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Riesgos!$F$2:$H$2</definedName>
@@ -36,14 +44,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="241">
   <si>
     <t>Riesgo</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>Impacto</t>
   </si>
   <si>
@@ -65,9 +70,6 @@
     <t>1 a 2</t>
   </si>
   <si>
-    <t>Perfiles inadecuados en el equipo generando el desconocimiento del proceso y las tecnologias</t>
-  </si>
-  <si>
     <t>Medio</t>
   </si>
   <si>
@@ -80,60 +82,12 @@
     <t>6 a 9</t>
   </si>
   <si>
-    <t>Falta de seguimientos en el proceso</t>
-  </si>
-  <si>
-    <t>No llevar seguimiento del equipo y el avance con respecto a lo realizado</t>
-  </si>
-  <si>
-    <t>Falta de claridad en los requerimientos</t>
-  </si>
-  <si>
-    <t>El equipo no comprende los requerimeinto porque ya sea que haya ambiguedad o contradicciones en los mismos</t>
-  </si>
-  <si>
-    <t>Solicitar reunion con el PO para un mayor entendimiento y a claraciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde el inicio se definiran los requerimientos y en base a los definidos se trabajaran con ellos </t>
-  </si>
-  <si>
-    <t>Cambios en los tiempos estipulados</t>
-  </si>
-  <si>
-    <t>Modificaciones en el cronograma de entrega.</t>
-  </si>
-  <si>
-    <t>Se definen las pruebas a realizar de acuerdo a su criticidad.</t>
-  </si>
-  <si>
-    <t>Usabilidad</t>
-  </si>
-  <si>
-    <t>La aplicacion debe ser de facil entendimiento para que las personas tengan facilidad de uso</t>
-  </si>
-  <si>
-    <t>Disposición de los elementos en la pantalla</t>
-  </si>
-  <si>
-    <t>Las distribución de los elementos en las interfaces perjudica al usuario, provocando cansancio visual.</t>
-  </si>
-  <si>
     <t>Validar el espacio entre los elementos y las fuentes utilizadas.</t>
   </si>
   <si>
-    <t>Tiempos de respuesta prolongados</t>
-  </si>
-  <si>
-    <t>La ejecución de procesos en la aplicación toman tiempos extensos en dar respuesta al usuario</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verificar la respuesta de los diferentes procesos, teniendo en cuenta un tiempo máximo para notificar su estado de completado </t>
   </si>
   <si>
-    <t xml:space="preserve">Existen situaciones de fallos en el aplicativo que no son contralados y perjudican su uso. </t>
-  </si>
-  <si>
     <t>Verificar que para los posibles lanzamientos de error, exista un mensaje apropiado que le indique al usuario el fallo respectivo y permita continuar con otra acción en la aplicación</t>
   </si>
   <si>
@@ -149,83 +103,1189 @@
     <t>R-002</t>
   </si>
   <si>
+    <t>R-004</t>
+  </si>
+  <si>
+    <t>R-005</t>
+  </si>
+  <si>
+    <t>R-006</t>
+  </si>
+  <si>
+    <t>R-007</t>
+  </si>
+  <si>
+    <t>R-008</t>
+  </si>
+  <si>
+    <t>R-009</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Existe el riesgo que los 15 días limite no se cumplan dedibo a adiciones en los requisitos del proceso.</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Pruebas de usabilidad</t>
+  </si>
+  <si>
+    <t>El ingreso de caracteres especiales supone un riesgo para la integridad de los datos, teniendo en cuenta que los atacantes pueden utilizar combinaciones para alterar la información.</t>
+  </si>
+  <si>
+    <t>Verificar que en el campo de búsqueda no se puedan ingresar caracteres especiales - Prueba de seguridad</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Solicitar reunion con el PO para un mayor entendimiento y aclaraciones</t>
+  </si>
+  <si>
+    <t>Retraso en la ejecución del proceso</t>
+  </si>
+  <si>
+    <t>Demora en la entrega de los ambientes</t>
+  </si>
+  <si>
+    <t>Etapa/Actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos </t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>Esfuerzo por Unidad  Horas</t>
+  </si>
+  <si>
+    <t>Esfuerzo Total</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Reunión de contexto y entendimiento</t>
+  </si>
+  <si>
+    <t>Revisión de documentación</t>
+  </si>
+  <si>
+    <t>Logística</t>
+  </si>
+  <si>
+    <t>Verificación de ambientes de prueba</t>
+  </si>
+  <si>
+    <t>Planeacion</t>
+  </si>
+  <si>
+    <t>Análisis de riesgos</t>
+  </si>
+  <si>
+    <t>Definición del alcance</t>
+  </si>
+  <si>
+    <t>Estimar los tiempos</t>
+  </si>
+  <si>
+    <t>Planear tipo de pruebas</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Smoke test</t>
+  </si>
+  <si>
+    <t>Pruebas funcionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas de regresion </t>
+  </si>
+  <si>
+    <t>HU001 - Consultar Cursos Existentes</t>
+  </si>
+  <si>
+    <t>Verificación de la disposición de los elementos en pantalla</t>
+  </si>
+  <si>
+    <t>Tiempo de visualización</t>
+  </si>
+  <si>
+    <t>Validación de filtro de busqueda</t>
+  </si>
+  <si>
+    <t>Validación de campo de búsqueda general</t>
+  </si>
+  <si>
+    <t>Verificación de mensajes de validación</t>
+  </si>
+  <si>
+    <t>Verificación navegación entre categorías, subcategorias y cursos</t>
+  </si>
+  <si>
+    <t>Ejecución</t>
+  </si>
+  <si>
+    <t>Pruebas de funcionales</t>
+  </si>
+  <si>
+    <t>Pruebas de regresion</t>
+  </si>
+  <si>
+    <t>Cierre/Entrega</t>
+  </si>
+  <si>
+    <t>Informe de cierre(reunión de entrega)</t>
+  </si>
+  <si>
+    <t>Entrega de documentación del proyecto</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Esfuerzo estimado</t>
+  </si>
+  <si>
+    <t>Factor de ajuste</t>
+  </si>
+  <si>
+    <t>Esfuerzo mas probable</t>
+  </si>
+  <si>
+    <t>Diligenciar</t>
+  </si>
+  <si>
+    <t>Cantidad de analistas</t>
+  </si>
+  <si>
+    <t>Horas analista</t>
+  </si>
+  <si>
+    <t>Horas total analistas x Día</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Total dias</t>
+  </si>
+  <si>
+    <t>Causales de Desfase</t>
+  </si>
+  <si>
+    <t>Valor porcentual</t>
+  </si>
+  <si>
+    <t>Factor de ajuste se define por medio de:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mala calidad de artefacto recibido-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desarrollo</t>
+    </r>
+  </si>
+  <si>
+    <t>Porcentaje fijo establecido por cliente y choucair que puede ser del 35%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alistamiento de ambientes-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ambientes QA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos historicos en base a proyectos anteriores teniendo en cuenta causales de desfase y porcentaje de factor de ajuste </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pendiente de Instalación Por Infraestructura-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Infraestructura</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cambio de alcance-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gestion de la Demanda</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Riesgos de proyecto identificados y valorados </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Administración y control de versiones o releases de software-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Versiones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desconocimiento negocio-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fabrica QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incumplimiento en la entrega de artefactos(Pend Entrega del desarrollo)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desarrollo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gestión issues(Bloqueado por defecto)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desarrollo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Inestabilidad del ambiente de pruebas durante la ejecución - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Infraestructura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actividades de SW o HW no planeadas-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Infraestructura QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ejecución en ambientes compartidos-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release Management</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Novedades equipo de trabajo, Actividades del proyecto no planeadas -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+  </si>
+  <si>
+    <t>Eventos externos</t>
+  </si>
+  <si>
+    <t>Total Factor de ajuste para el tipo de prueba</t>
+  </si>
+  <si>
+    <t>&lt;=35%</t>
+  </si>
+  <si>
+    <t>&lt;=25%</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>ALCANCE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Objetivo
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mitigar la probabilidad de ocurrencia de errores que se puedan presentar en la etapa productiva de la plataforma.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Cuando se dé clic en la opción “Universidad Choucair” se debe visualizar la interfaz con las categorías de los cursos, una opción de filtro por categoría ubicado en la selección de “Universidad Choucair” y un buscador de cursos generales.
+- Cuando se dé clic en la opción “Cursos y certificaciones” se debe visualizar la interfaz con los cursos asociados, una opción de filtro por categoría ubicado en la selección de “Cursos y Certificaciones” y un buscador de cursos generales.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filtros por categoría
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Al seleccionar la opción “Universidad Choucair” se deben visualizar una serie de íconos que representan las diferentes categorías que esta posee y a su vez, estas deben contener un sub conjunto de categorías sí es el caso y los cursos asociados. Sí no existen subcategorías o cursos asociados debe visualizarse un mensaje indicando que No existen cursos asociados en el momento.
+- La selección de determinada categoría en el filtro dispuesto para tal fin debe enviar al usuario a la página asociada, sí corresponde a una subcategoría deben visualizarse los íconos de estas o en tal caso los cursos.
+- Al seleccionar la opción “Cursos y certificaciones” se deben visualizar los cursos disponibles para dicho filtro, teniendo en cuenta que no posee subcategorías asociadas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Búsqueda general</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Al digitar una palabra en el campo de búsqueda, la plataforma deberá mostrar al usuario los resultados coincidentes de acuerdo con lo que se escribió. 
+ -Al dar clic en el botón “Ir” o presionar la tecla “Enter” se debe dirigir a la página con los resultados asociados a la búsqueda.</t>
+    </r>
+  </si>
+  <si>
+    <t>Validaciones</t>
+  </si>
+  <si>
+    <t>Tipo de Prueba</t>
+  </si>
+  <si>
+    <t>Tipo de dato y formato en el campo de texto de búsqueda</t>
+  </si>
+  <si>
+    <t>Correcta navegación de los botones</t>
+  </si>
+  <si>
+    <t>Verificación de cursos asociados con categoria</t>
+  </si>
+  <si>
+    <t>Verificación de mensajes de respuesta</t>
+  </si>
+  <si>
+    <t>Visualización de cursos de acuerdo con el límite permitido en pantalla (20)</t>
+  </si>
+  <si>
+    <t>Verificación del tiempo de respuesta para visualizar los cursos</t>
+  </si>
+  <si>
+    <t>Pruebas de caja negra</t>
+  </si>
+  <si>
+    <t>Pruebas de rendimiento (básica)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Requerimientos Fuera del Alcance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Validación para los módulos “Plan Carrera” y “Selección Choucair”
+- Validaciones en bases de datos.
+- Validaciones en dispositivos móviles.
+- Validación en otros navegadores que no están definidos.
+- Validaciones complejas en pruebas de seguridad, performance, UI/UX, etc.
+- Pruebas de carga y estrés
+- Validación de matrícula en cursos
+- Validación de realización de los cursos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nota: Todo lo que no esté definido dentro del alcance no se tiene en cuenta.</t>
+    </r>
+  </si>
+  <si>
+    <t>APPROACH</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Sub Área</t>
+  </si>
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>Detectado por</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Fecha de detección</t>
+  </si>
+  <si>
+    <t>Fecha Asignación</t>
+  </si>
+  <si>
+    <t>Fecha solución</t>
+  </si>
+  <si>
+    <t>Pasos</t>
+  </si>
+  <si>
+    <t>Severidad</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>IS-001</t>
+  </si>
+  <si>
+    <t>HU001- Consultar Cursos Existentes</t>
+  </si>
+  <si>
+    <t>Visualización de cursos</t>
+  </si>
+  <si>
+    <t>El tiempo de respuesta para la visualización de los cursos supera el tiempo límite</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Desempeño</t>
+  </si>
+  <si>
+    <t>Christian Aya</t>
+  </si>
+  <si>
+    <t>- Ingresar a la URL de Choucair Academy
+- Login con rol de colaborador
+- Página de búsqueda 
+- Dar clic en la opción "Universidad Choucair" o "Cursos y Certificaciones" 
+- Seleccionar una categoría o curso</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>IS-002</t>
+  </si>
+  <si>
+    <t>Campo de búsqueda</t>
+  </si>
+  <si>
+    <t>Es posible navegar a la página de búsqueda con información vacia en el campo de texto.</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Camila Jiménez</t>
+  </si>
+  <si>
+    <t>Carlos Conde</t>
+  </si>
+  <si>
+    <t>- Ingresar a la URL de Choucair Academy
+- Login con rol de colaborador
+- Página de búsqueda
+- No ingresar valores.
+- Presionar tecla Enter o clic en "Ir"</t>
+  </si>
+  <si>
+    <t>Resolviendo</t>
+  </si>
+  <si>
+    <t>IS-003</t>
+  </si>
+  <si>
+    <t>No se muestra un mensaje que evidencie la existencia de cursos.</t>
+  </si>
+  <si>
+    <t>Sugerencia</t>
+  </si>
+  <si>
+    <t>- Ingresar a la URL de Choucair Academy
+- Login con rol de colaborador
+- Página de búsqueda 
+- Seleccionar la opción de filtro "Universidad Choucair/ Escuela Técnica/ Testing/ Aplicativos"</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>A pesar de que no se genera ningún error, es más intuito presentar al usuario un mensaje indicando que no hay cursos disponbiles que dejar la pantalla en blanco.</t>
+  </si>
+  <si>
+    <t>IS-004</t>
+  </si>
+  <si>
+    <t>No se asocian indicios de palabras con cursos coincidentes.</t>
+  </si>
+  <si>
+    <t>Andrés López</t>
+  </si>
+  <si>
+    <t>Felipe Zuluaga</t>
+  </si>
+  <si>
+    <t>- Ingresar a la URL de Choucair Academy
+- Login con rol de colaborador
+- Página de búsqueda
+- Ingresar un indicio de palabra coincidente que permita desplegar una lista de cursos de acuerdo con la necesidad del usuario.</t>
+  </si>
+  <si>
+    <t>Se sugiere búsqueda con indicios de palabras, teniendo en cuenta que el usuario podría no conocer toda la oferta que se ofrece y prefiera utilizar indicios que le permitan llegar a su necesidad.</t>
+  </si>
+  <si>
+    <t>IS-005</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Hay una restricción de límite de intentos permitidos para ingresar</t>
+  </si>
+  <si>
+    <t>Hallazgo</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>- Ingresar a la URL de Choucair Academy
+- Login con rol de colaborador</t>
+  </si>
+  <si>
+    <t>Al hacer algunos intentos de ingreso, se puede constatar que no hay límite de intentos permitidos para ingresar a la plataforma, esto tiene consecuencias graves a nivel de seguridad</t>
+  </si>
+  <si>
+    <t>ID CP</t>
+  </si>
+  <si>
+    <t>REQ / HU / CU</t>
+  </si>
+  <si>
+    <t>Precondiciones</t>
+  </si>
+  <si>
+    <t>Nombre escenario de prueba</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Descripción escenario de prueba</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Fecha
+Ejecución 1</t>
+  </si>
+  <si>
+    <t>Estado
+Ejecución 1</t>
+  </si>
+  <si>
+    <t>Fecha
+Ejecución 2</t>
+  </si>
+  <si>
+    <t>Estado
+Ejecución 2</t>
+  </si>
+  <si>
+    <t>Estado Final</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>SP-000</t>
+  </si>
+  <si>
+    <t>Smoke Test</t>
+  </si>
+  <si>
+    <t>Nombre Usuario
+Contraseña</t>
+  </si>
+  <si>
+    <t> - Dar clic en la opción "Universidad Choucair" o "Cursos y Certificaciones" 
+- Seleccionar una categoría o curso</t>
+  </si>
+  <si>
+    <t>- Se deben visualizar las diferentes categorías o cursos asociados dependiendo del flujo de búsqueda</t>
+  </si>
+  <si>
+    <t>Christian Aya
+Andrés López</t>
+  </si>
+  <si>
+    <t>Exitoso</t>
+  </si>
+  <si>
+    <t>No Ejecutado</t>
+  </si>
+  <si>
+    <t>CP-001</t>
+  </si>
+  <si>
+    <t>- Ingresar a la URL de Choucair Academy
+- Login con rol de colaborador
+- Página de categorías</t>
+  </si>
+  <si>
+    <t>Validación filtro de búsqueda</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t> - Seleccionar la opción de filtro "Universidad Choucair/ Escuela Técnica/ Testing/ Herramientas de Apoyo"</t>
+  </si>
+  <si>
+    <t>- Se muestran en la pantalla los diferentes cursos asociados al filtro seleccionado.</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>CP-002</t>
+  </si>
+  <si>
+    <t>- Ingresar a la URL de Choucair Academy
+- Login con rol de colaborador
+- Página de búsqueda</t>
+  </si>
+  <si>
+    <t>Disposición de los elementos</t>
+  </si>
+  <si>
+    <t> - Seleccionar la opción de filtro "Universidad Choucair/ Escuela Técnica/ Automatización"</t>
+  </si>
+  <si>
+    <t>- Se muestran en la pantalla la cantidad máxima de 20 cursos asociados al filtro seleccionado y se debe desplegar el menú de paginación.</t>
+  </si>
+  <si>
+    <t>CP-003</t>
+  </si>
+  <si>
+    <t>- Se muestran las categorias o cursos asociados en un tiempo límite de 2 segundos.</t>
+  </si>
+  <si>
+    <t>Fallido</t>
+  </si>
+  <si>
+    <t>CP-004</t>
+  </si>
+  <si>
+    <t>Validación campo de búsqueda general</t>
+  </si>
+  <si>
+    <t>No ingresar información en el campo</t>
+  </si>
+  <si>
+    <t>- Ingresar una palabra coincidente que permita desplegar una lista de cursos de acuerdo con la necesidad del usuario.
+- Presionar tecla enter o dar clic en el botón "Ir"</t>
+  </si>
+  <si>
+    <t>- Se muestras los cursos que coinciden con la búsqueda que el usuario realiza</t>
+  </si>
+  <si>
+    <t>CP-005</t>
+  </si>
+  <si>
+    <t>""!$%&amp;/</t>
+  </si>
+  <si>
+    <t>- Ingresar una palabra con una combinación de caracteres especiales.
+- Presionar tecla enter o dar clic en el botón "Ir"</t>
+  </si>
+  <si>
+    <t>- Se muestras un mensaje indicando que no se puede realizar la búsqueda</t>
+  </si>
+  <si>
+    <t>CP-006</t>
+  </si>
+  <si>
+    <t>Validación de mensajes</t>
+  </si>
+  <si>
+    <t> - Seleccionar la opción de filtro "Universidad Choucair/ Escuela Técnica/ Testing/ Aplicativos"</t>
+  </si>
+  <si>
+    <t>- Se muestra un mensaje de error indicando que no existen resultados de acuerdo con el filtro seleccionado.</t>
+  </si>
+  <si>
+    <t>CP-007</t>
+  </si>
+  <si>
+    <t>Verificación navegación entre categorías, subcategorías y cursos</t>
+  </si>
+  <si>
+    <t> - Dar clic en la opción "Universidad Choucair" o "Cursos y Certificaciones" 
+- Seleccionar una categoría
+- Seleccionar subcategoría sí corresponde</t>
+  </si>
+  <si>
+    <t>- Se deben visualizar las diferentes cursos asociados dependiendo del flujo de búsqueda</t>
+  </si>
+  <si>
+    <t>Andrés López
+Camila Jiménez</t>
+  </si>
+  <si>
+    <t>Ingreso de nuevos colaboradores al proyecto en una etapa avanzada del sprint</t>
+  </si>
+  <si>
+    <t>Existen ambiguedades en los requerimientos del proyecto que confunden al equipo</t>
+  </si>
+  <si>
+    <t>Retraso en la realización del proceso de pruebas</t>
+  </si>
+  <si>
+    <t>La aplicacion debe ser de facil entendimiento</t>
+  </si>
+  <si>
+    <t>Causa</t>
+  </si>
+  <si>
+    <t>El tiempo que tardan los cursos en visualizarse es alto</t>
+  </si>
+  <si>
+    <t>El usuario puede ingresar combinaciones de caracteres especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre carga o adición de tareas a los colaboradores con antigüedad en el proyecto </t>
+  </si>
+  <si>
+    <t>Ejecución parcial de las pruebas</t>
+  </si>
+  <si>
+    <t>Las distribución de los objetos en las interfaces perjudican visualmente al usuario.</t>
+  </si>
+  <si>
+    <t>La plataforma no responde a escenarios de fallos con mensajes descriptivos.</t>
+  </si>
+  <si>
+    <t>El usuario no comprende por qué no puede realizar algun tipo de acción en la plataforma.</t>
+  </si>
+  <si>
+    <t>El usuario pierda el interes por realizar los cursos en la plataforma.</t>
+  </si>
+  <si>
+    <t>El usuario debe esforzar su visión para realizar las busquedas que requiere.</t>
+  </si>
+  <si>
+    <t>El usuario no puede usar la plataforma</t>
+  </si>
+  <si>
+    <t>Disponer de espacios de capacitacion par el equipo en las áreas requeridas.</t>
+  </si>
+  <si>
+    <t>Sugerir al cliente la realización de las pruebas con el mayor nivel de criticidad.</t>
+  </si>
+  <si>
+    <t>Redefinición de la estrategia y estimación.</t>
+  </si>
+  <si>
     <t>R-003</t>
   </si>
   <si>
-    <t>R-004</t>
-  </si>
-  <si>
-    <t>R-005</t>
-  </si>
-  <si>
-    <t>R-006</t>
-  </si>
-  <si>
-    <t>R-007</t>
-  </si>
-  <si>
-    <t>R-008</t>
-  </si>
-  <si>
-    <t>R-009</t>
-  </si>
-  <si>
-    <t>R-010</t>
-  </si>
-  <si>
-    <t>R-011</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Equipo con conocimientos básicos</t>
-  </si>
-  <si>
-    <t>Disponer de espacios de capacitacion par el equipo en las áreas de desconocimiento</t>
-  </si>
-  <si>
-    <t>Cambios en el alcance del proyecto</t>
-  </si>
-  <si>
-    <t>Existe el riesgo que los 15 días limite no se cumplan dedibo a adiciones en los requisitos del proceso.</t>
-  </si>
-  <si>
-    <t>Negociar con el cliente las restricciones del negocio que pueden modificarse, ya sea los recursos, el tiempo o el alcance y de esta forma modificar la estrategia del proceso.</t>
-  </si>
-  <si>
-    <t>Aplicar y mantener las ceremonias del marco ágil</t>
-  </si>
-  <si>
-    <t>Ambientes sin preparar o no entregados</t>
-  </si>
-  <si>
-    <t>Los ambientes de pruebas deben estar previamente configurados y listos para su uso, así como de todas las herramientas necesarias para llevar a cabo el proceso de pruebas</t>
-  </si>
-  <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>Pruebas de usabilidad</t>
-  </si>
-  <si>
-    <t>El aplicativo no responde a escenarios de fallos</t>
-  </si>
-  <si>
-    <t>Ingreso de caracteres especiales</t>
-  </si>
-  <si>
-    <t>El ingreso de caracteres especiales supone un riesgo para la integridad de los datos, teniendo en cuenta que los atacantes pueden utilizar combinaciones para alterar la información.</t>
-  </si>
-  <si>
-    <t>Verificar que en el campo de búsqueda no se puedan ingresar caracteres especiales - Prueba de seguridad</t>
+    <r>
+      <t xml:space="preserve">De acuerdo con los riesgos, para la versión de la plataforma web Choucair Academy.
+Se proyecta una reunión con el cliente para tener un contexto sobre los elementos claves del negocio y los ajustes desarrollados en la plataforma, además, se realizará una revisión y análisis de los requisitos, teniendo en cuenta las restricciones y riesgos del proyecto y producto, se elaborará el diseño de casos de pruebas con el grupo de analistas para determinar las funcionalidades que son determinantes para la comprobación del módulo correspondiente y las diferentes características para validar la calidad del mismo, se establecerá un alcance, approach y se estimará el tiempo necesario para el proceso de pruebas. Teniendo claros estos parámetros se puede iniciar con las pruebas de humo en el aplicativo, lo cual permitirá entender en primera instancia el flujo del módulo y posibles fallos asociados a la aplicación. Posteriormente se realizará la verificación de las funcionalidades que representan un nivel de interacción elevado con el usuario y que determinan el flujo para la consulta de los cursos:
+   1. Verificación del Filtro de búsqueda
+   2. Validación del Campo de búsqueda
+   3. Pantalla de visualización de cursos
+   4. Navegación entre enlaces de categorías, subcategorías y cursos
+   5. Pruebas de regresión.
+Las pruebas están clasificadas de la siguiente manera:
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smoke Test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Verificación básica de los flujos principales del módulo de consultar cursos de la plataforma Choucair Academy, prueba de la lógica de navegación teniendo en cuenta la pantalla principal como el inicio de la búsqueda de los cursos según la categoría principal “Universidad Choucair”, “Cursos y Certificaciones”.
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pruebas de funcionales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Verificación de las funcionalidades de acuerdo con las características del módulo de consultar cursos, el filtro de los cursos según las categorías y subcategorías y la búsqueda general. Se prueba que no existan fallos en las respuestas que proporcione cada una de las opciones y que la visualización de los cursos o mensajes en la pantalla sean los pertinentes.
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pruebas de desempeño</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Se verifica la calidad de desempeño del aplicativo de acuerdo con la cantidad de cursos visualizados en pantalla y la capacidad del sistema para presentarlos en un tiempo especificado.
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pruebas de seguridad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Se verifica que en el campo de búsqueda el usuario no puedo ingresar caracteres especiales, teniendo en cuenta que su combinación podría presentar un riesgo de integridad para la información.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Gestión de Pruebas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Finalmente se reportan los issues, previo a la solución y realización de las pruebas de regresión asociadas a los fallos y funcionalidades básicas en la herramienta AzureDevOps como sugerencia o Excel, de acuerdo con la determinación del cliente y se hace uso del repositorio integrado de AzureDevOps o GitHub para almacenar los recursos generados durante el proceso de pruebas, la culminación del proceso es la realización de prueba de aceptación para tener la satisfacción del cliente</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +1370,121 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,8 +1518,116 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF385623"/>
+        <bgColor rgb="FF385623"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECECEC"/>
+        <bgColor rgb="FFECECEC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E78"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8497B0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -388,49 +1669,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -578,14 +1816,282 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -618,61 +2124,264 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,18 +2399,84 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -745,6 +2520,218 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>593480</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>146537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flecha: a la derecha 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643A175C-1AFE-43F0-AE4D-0D4AD2BC36B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4791075" y="9210675"/>
+          <a:ext cx="574430" cy="146537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>299085</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Diagrama&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C9FB66-9DF8-1954-0A77-B4CD3D1D4528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="8858250"/>
+          <a:ext cx="9385935" cy="4972050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1044,10 +3031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1072,68 +3059,68 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="15">
+    </row>
+    <row r="3" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="128" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="128" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="129">
         <v>2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="129">
         <v>1</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="129">
         <f>F3*G3</f>
         <v>2</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>50</v>
+      <c r="I3" s="130" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="104"/>
+      <c r="C4" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
@@ -1145,120 +3132,122 @@
         <f>F4*G4</f>
         <v>3</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" s="12" t="s">
-        <v>37</v>
+      <c r="I4" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="104"/>
+      <c r="C5" s="127" t="s">
+        <v>239</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>222</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
       </c>
       <c r="H5" s="11">
         <f>F5*G5</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="105"/>
+      <c r="C6" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="14">
         <v>3</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="G6" s="14">
         <v>2</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="14">
+        <f>F6*G6</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="132" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="129">
+        <v>3</v>
+      </c>
+      <c r="G7" s="129">
         <v>1</v>
       </c>
-      <c r="H6" s="11">
-        <f>F6*G6</f>
+      <c r="H7" s="129">
+        <f t="shared" ref="H7:H11" si="0">F7*G7</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="104"/>
+      <c r="C8" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="11">
         <v>2</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-      <c r="H7" s="11">
-        <f>F7*G7</f>
-        <v>6</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="20">
-        <v>3</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="20">
-        <f t="shared" ref="H8:H13" si="0">F8*G8</f>
-        <v>3</v>
-      </c>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="104"/>
+      <c r="C9" s="127" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
-      <c r="C9" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="F9" s="11">
         <v>3</v>
@@ -1270,201 +3259,2810 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="I9" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="104"/>
+      <c r="C10" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="22">
+        <v>3</v>
+      </c>
+      <c r="G10" s="22">
         <v>2</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="11">
+        <v>6</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="105"/>
+      <c r="C11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="14">
         <v>3</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="14">
         <v>1</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36"/>
-      <c r="C12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="29">
+      <c r="I11" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="D15" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="G15" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="29">
+      <c r="H15" s="101"/>
+    </row>
+    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="D17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
         <v>2</v>
       </c>
-      <c r="H12" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="G17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="20">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="D17" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="G17" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="D18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="D19" s="8" t="s">
+      <c r="G18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="7">
-        <v>3</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
-        <v>33</v>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="F2:H2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="4">
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="H3:H13">
+  <conditionalFormatting sqref="H3:H11">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H13">
+  <conditionalFormatting sqref="H3:H11">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>3</formula>
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H13">
+  <conditionalFormatting sqref="H3:H11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F13 G3:G16" xr:uid="{947CF420-AD2A-48FA-9957-799D5F7A0144}">
-      <formula1>$E$18:$E$20</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F11 G3:G14" xr:uid="{947CF420-AD2A-48FA-9957-799D5F7A0144}">
+      <formula1>$E$16:$E$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57352B70-E1DD-4553-B340-6DCB8A3F1E05}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31">
+        <f>SUM(E3:E4)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="33">
+        <v>3</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="33">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35">
+        <f>B3*D3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="35">
+        <f>B4*D4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38">
+        <f>SUM(E7:E7)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="33">
+        <v>3</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="35">
+        <f>B7*D7</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39">
+        <f>SUM(E10:E13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="33">
+        <v>3</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" ref="E10:E11" si="0">B10*D10</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="33">
+        <v>3</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33">
+        <v>1</v>
+      </c>
+      <c r="E11" s="35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="35">
+        <f>B12*D12</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="33">
+        <v>3</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33">
+        <v>1</v>
+      </c>
+      <c r="E13" s="35">
+        <f>B13*D13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="39">
+        <f>SUM(E15:E17)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="33">
+        <v>2</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="35">
+        <f>+B15*D15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="33">
+        <v>2</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35">
+        <f t="shared" ref="E16:E17" si="1">+B16*D16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="33">
+        <v>2</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33">
+        <v>1</v>
+      </c>
+      <c r="E17" s="35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36">
+        <f>SUM(C19:C24)</f>
+        <v>10</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="39">
+        <f>SUM(E19:E24)</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" ref="E19:E24" si="2">C19*D19</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33">
+        <v>2</v>
+      </c>
+      <c r="D21" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="35">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33">
+        <v>3</v>
+      </c>
+      <c r="D22" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="35">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33">
+        <v>1</v>
+      </c>
+      <c r="D23" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="35">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33">
+        <v>2</v>
+      </c>
+      <c r="D24" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="45">
+        <f>SUM(E27:E29)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="33">
+        <v>2</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="35">
+        <f>+B27*D27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33">
+        <v>6</v>
+      </c>
+      <c r="D28" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="47">
+        <f>C28*D28</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="33">
+        <v>2</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" ref="E29" si="3">+B29*D29</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="39">
+        <f>SUM(E31:E32)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="33">
+        <v>3</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33">
+        <v>1</v>
+      </c>
+      <c r="E31" s="35">
+        <f>+B31*D31</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="33">
+        <v>3</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="35">
+        <f>B32*D32</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="45">
+        <f>SUM(E2,E6,E9,E14,E18,E26,E30)</f>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
+      <c r="C36" s="53">
+        <f>E33*E36</f>
+        <v>3.8829999999999996</v>
+      </c>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55">
+        <f>'Factor de Ajuste'!B16</f>
+        <v>0.11</v>
+      </c>
+      <c r="F36" s="56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="C37" s="57">
+        <f>E33+C36</f>
+        <v>39.183</v>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="106"/>
+      <c r="D40" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="106"/>
+      <c r="D41" s="62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="52"/>
+      <c r="B42" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="106"/>
+      <c r="D42" s="62">
+        <f>D41*D40</f>
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="106"/>
+      <c r="D43" s="63">
+        <f>C37/D42</f>
+        <v>1.4512222222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897B68CF-C3FB-42BA-9434-9C60A06D8598}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="67">
+        <v>0</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="68">
+        <v>1</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="111">
+        <v>2</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="68">
+        <v>3</v>
+      </c>
+      <c r="E6" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="109"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="67">
+        <v>0</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="67">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="67">
+        <v>0</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="67">
+        <v>0</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="67">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="70">
+        <f>SUM(B3:B15)</f>
+        <v>0.11</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:J5"/>
+    <mergeCell ref="E6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B2F0E5-6471-4CC4-B93C-4C0C792F046B}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="121"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="123"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="123"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="123"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="123"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="123"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+    </row>
+    <row r="33" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="125" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+    </row>
+    <row r="38" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="125"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="125"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="125"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="125"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="125"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="125"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="125"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="125"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="125"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="125"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="125"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="125"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A39:G51"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G6"/>
+    <mergeCell ref="A7:G31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60306786-1A89-4F4E-8933-14BCEF41428F}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="119"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="119"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="119"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+    </row>
+    <row r="39" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="119"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+    </row>
+    <row r="40" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="119"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB046DB-1D33-48E7-86E9-051E6AFDCBB5}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="89" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="95">
+        <v>44971</v>
+      </c>
+      <c r="J2" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="96"/>
+    </row>
+    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="95">
+        <v>44971</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="L3" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" s="99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="95">
+        <v>44971</v>
+      </c>
+      <c r="J4" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" s="99"/>
+    </row>
+    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="95">
+        <v>44971</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="95">
+        <v>44971</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6" s="99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="95">
+        <v>44973</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="N7" s="99"/>
+    </row>
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="95">
+        <v>44971</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" s="99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="95">
+        <v>44971</v>
+      </c>
+      <c r="J9" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="99"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J9 M2:M9" xr:uid="{F4EFF9D8-062C-4EA1-AC9D-88F3CAF300AC}">
+      <formula1>$AH$3:$AH$9</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785F1C0-1D54-444A-80D5-CB16A1F30C40}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9B0E9A-F39F-4AAC-8A39-110191E12869}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79">
+        <v>44971</v>
+      </c>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="78">
+        <v>2</v>
+      </c>
+      <c r="N2" s="78">
+        <v>2</v>
+      </c>
+      <c r="O2" s="78">
+        <v>2</v>
+      </c>
+      <c r="P2" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" s="74"/>
+    </row>
+    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="79">
+        <v>44971</v>
+      </c>
+      <c r="J3" s="79">
+        <v>44972</v>
+      </c>
+      <c r="K3" s="79">
+        <v>44974</v>
+      </c>
+      <c r="L3" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" s="78">
+        <v>1</v>
+      </c>
+      <c r="N3" s="78">
+        <v>1</v>
+      </c>
+      <c r="O3" s="78">
+        <v>2</v>
+      </c>
+      <c r="P3" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="74"/>
+    </row>
+    <row r="4" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79">
+        <v>44971</v>
+      </c>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" s="78">
+        <v>1</v>
+      </c>
+      <c r="N4" s="78">
+        <v>1</v>
+      </c>
+      <c r="O4" s="78">
+        <v>2</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="79">
+        <v>44973</v>
+      </c>
+      <c r="J5" s="79">
+        <v>44974</v>
+      </c>
+      <c r="K5" s="79">
+        <v>44977</v>
+      </c>
+      <c r="L5" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="78">
+        <v>1</v>
+      </c>
+      <c r="N5" s="78">
+        <v>1</v>
+      </c>
+      <c r="O5" s="78">
+        <v>2</v>
+      </c>
+      <c r="P5" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79">
+        <v>44972</v>
+      </c>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="78">
+        <v>4</v>
+      </c>
+      <c r="N6" s="78">
+        <v>4</v>
+      </c>
+      <c r="O6" s="78">
+        <v>4</v>
+      </c>
+      <c r="P6" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{8C5B0F63-1A15-4203-833A-DAF508445B9D}">
+      <formula1>"Nuevo,Activo,Resolviendo,Cerrado,Re-Abierto"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{48DE8302-4CB3-4CE2-BE15-958F164F1A50}">
+      <formula1>"Error,Sugerencia,Hallazgo,Consideración"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:O6" xr:uid="{6F887136-67D0-4AA0-82A6-4113E9FEA403}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E813C4-8121-4B97-9B4E-5CAA81AC2662}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-Analisis_de_Riesgos.xlsx
+++ b/2-Analisis_de_Riesgos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3B1E78-1257-4701-BE6A-C611916D5E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED706FC-CBC2-4003-A86A-F570A5B64E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Riesgos" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,7 @@
     <sheet name="Alcance" sheetId="3" r:id="rId4"/>
     <sheet name="Approach" sheetId="4" r:id="rId5"/>
     <sheet name="Casos de Prueba" sheetId="8" r:id="rId6"/>
-    <sheet name="Evidencias" sheetId="6" r:id="rId7"/>
-    <sheet name="Bugtracker" sheetId="7" r:id="rId8"/>
-    <sheet name="Informe de Cierre" sheetId="9" r:id="rId9"/>
+    <sheet name="Bugtracker" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Riesgos!$F$2:$H$2</definedName>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="252">
   <si>
     <t>Riesgo</t>
   </si>
@@ -124,9 +122,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Existe el riesgo que los 15 días limite no se cumplan dedibo a adiciones en los requisitos del proceso.</t>
-  </si>
-  <si>
     <t>Proyecto</t>
   </si>
   <si>
@@ -205,27 +200,12 @@
     <t>Pruebas funcionales</t>
   </si>
   <si>
-    <t xml:space="preserve">Pruebas de regresion </t>
-  </si>
-  <si>
     <t>HU001 - Consultar Cursos Existentes</t>
   </si>
   <si>
-    <t>Verificación de la disposición de los elementos en pantalla</t>
-  </si>
-  <si>
     <t>Tiempo de visualización</t>
   </si>
   <si>
-    <t>Validación de filtro de busqueda</t>
-  </si>
-  <si>
-    <t>Validación de campo de búsqueda general</t>
-  </si>
-  <si>
-    <t>Verificación de mensajes de validación</t>
-  </si>
-  <si>
     <t>Verificación navegación entre categorías, subcategorias y cursos</t>
   </si>
   <si>
@@ -239,9 +219,6 @@
   </si>
   <si>
     <t>Cierre/Entrega</t>
-  </si>
-  <si>
-    <t>Informe de cierre(reunión de entrega)</t>
   </si>
   <si>
     <t>Entrega de documentación del proyecto</t>
@@ -600,23 +577,6 @@
   </si>
   <si>
     <t>ALCANCE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-Objetivo
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mitigar la probabilidad de ocurrencia de errores que se puedan presentar en la etapa productiva de la plataforma.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -925,13 +885,7 @@
     <t>Precondiciones</t>
   </si>
   <si>
-    <t>Nombre escenario de prueba</t>
-  </si>
-  <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t>Descripción escenario de prueba</t>
   </si>
   <si>
     <t>Resultado Esperado</t>
@@ -962,14 +916,7 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>SP-000</t>
-  </si>
-  <si>
     <t>Smoke Test</t>
-  </si>
-  <si>
-    <t>Nombre Usuario
-Contraseña</t>
   </si>
   <si>
     <t> - Dar clic en la opción "Universidad Choucair" o "Cursos y Certificaciones" 
@@ -997,9 +944,6 @@
 - Página de categorías</t>
   </si>
   <si>
-    <t>Validación filtro de búsqueda</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -1020,9 +964,6 @@
 - Página de búsqueda</t>
   </si>
   <si>
-    <t>Disposición de los elementos</t>
-  </si>
-  <si>
     <t> - Seleccionar la opción de filtro "Universidad Choucair/ Escuela Técnica/ Automatización"</t>
   </si>
   <si>
@@ -1039,9 +980,6 @@
   </si>
   <si>
     <t>CP-004</t>
-  </si>
-  <si>
-    <t>Validación campo de búsqueda general</t>
   </si>
   <si>
     <t>No ingresar información en el campo</t>
@@ -1057,9 +995,6 @@
     <t>CP-005</t>
   </si>
   <si>
-    <t>""!$%&amp;/</t>
-  </si>
-  <si>
     <t>- Ingresar una palabra con una combinación de caracteres especiales.
 - Presionar tecla enter o dar clic en el botón "Ir"</t>
   </si>
@@ -1070,9 +1005,6 @@
     <t>CP-006</t>
   </si>
   <si>
-    <t>Validación de mensajes</t>
-  </si>
-  <si>
     <t> - Seleccionar la opción de filtro "Universidad Choucair/ Escuela Técnica/ Testing/ Aplicativos"</t>
   </si>
   <si>
@@ -1080,9 +1012,6 @@
   </si>
   <si>
     <t>CP-007</t>
-  </si>
-  <si>
-    <t>Verificación navegación entre categorías, subcategorías y cursos</t>
   </si>
   <si>
     <t> - Dar clic en la opción "Universidad Choucair" o "Cursos y Certificaciones" 
@@ -1090,9 +1019,6 @@
 - Seleccionar subcategoría sí corresponde</t>
   </si>
   <si>
-    <t>- Se deben visualizar las diferentes cursos asociados dependiendo del flujo de búsqueda</t>
-  </si>
-  <si>
     <t>Andrés López
 Camila Jiménez</t>
   </si>
@@ -1106,9 +1032,6 @@
     <t>Retraso en la realización del proceso de pruebas</t>
   </si>
   <si>
-    <t>La aplicacion debe ser de facil entendimiento</t>
-  </si>
-  <si>
     <t>Causa</t>
   </si>
   <si>
@@ -1154,27 +1077,103 @@
     <t>R-003</t>
   </si>
   <si>
+    <t>Cambios en el alcance por adiciones en los requisitos del proceso.</t>
+  </si>
+  <si>
+    <t>La aplicacion debe ser de facil entendimiento - (no es de facil)</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Informe de cierre</t>
+  </si>
+  <si>
+    <t>Reunión de entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Categoría
+Curso</t>
+  </si>
+  <si>
+    <t>Paso a Paso</t>
+  </si>
+  <si>
+    <t>Caso de Prueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-000
+</t>
+  </si>
+  <si>
+    <t>Consulta de un curso</t>
+  </si>
+  <si>
+    <t>Nombre del escenario</t>
+  </si>
+  <si>
+    <t>Verificación de asociación categoría - curso</t>
+  </si>
+  <si>
+    <t>Verificación del límite de cursos en pantalla</t>
+  </si>
+  <si>
+    <t>Verificación de paginación</t>
+  </si>
+  <si>
+    <t>- Visualizar las diferentes cursos asociados dependiendo del flujo de búsqueda</t>
+  </si>
+  <si>
+    <t>No se muestra un mensaje que evidencie la no existencia de cursos.</t>
+  </si>
+  <si>
+    <t>El tiempo de respuesta para la visualización de los cursos supera el límite establecido</t>
+  </si>
+  <si>
+    <t>Verificación de la disposición de los cursos en pantalla</t>
+  </si>
+  <si>
+    <t>Verificación de la disposición de los cursos</t>
+  </si>
+  <si>
+    <t>Verificación de mensajes de alerta</t>
+  </si>
+  <si>
+    <t>Verificación del filtro de busqueda</t>
+  </si>
+  <si>
+    <t>Verificación del campo de búsqueda general</t>
+  </si>
+  <si>
+    <t>Verificación del filtro de búsqueda</t>
+  </si>
+  <si>
+    <t>Tiempo que tarda en visualizarse los cursos en pantalla</t>
+  </si>
+  <si>
+    <t>Verificación de los cursos que coinciden con la palabra buscada</t>
+  </si>
+  <si>
+    <t>Verificación del campo de búsqueda vacio</t>
+  </si>
+  <si>
+    <t>Verificación de respuestas a fallos</t>
+  </si>
+  <si>
+    <t>Verificación del flujo de navegación entre categorías, subcategorías y cursos</t>
+  </si>
+  <si>
+    <t>Combinación de caracteres especiales</t>
+  </si>
+  <si>
+    <t>Verificación de flujo categoría - subcategpría - curso</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">De acuerdo con los riesgos, para la versión de la plataforma web Choucair Academy.
-Se proyecta una reunión con el cliente para tener un contexto sobre los elementos claves del negocio y los ajustes desarrollados en la plataforma, además, se realizará una revisión y análisis de los requisitos, teniendo en cuenta las restricciones y riesgos del proyecto y producto, se elaborará el diseño de casos de pruebas con el grupo de analistas para determinar las funcionalidades que son determinantes para la comprobación del módulo correspondiente y las diferentes características para validar la calidad del mismo, se establecerá un alcance, approach y se estimará el tiempo necesario para el proceso de pruebas. Teniendo claros estos parámetros se puede iniciar con las pruebas de humo en el aplicativo, lo cual permitirá entender en primera instancia el flujo del módulo y posibles fallos asociados a la aplicación. Posteriormente se realizará la verificación de las funcionalidades que representan un nivel de interacción elevado con el usuario y que determinan el flujo para la consulta de los cursos:
-   1. Verificación del Filtro de búsqueda
-   2. Validación del Campo de búsqueda
-   3. Pantalla de visualización de cursos
-   4. Navegación entre enlaces de categorías, subcategorías y cursos
-   5. Pruebas de regresión.
-Las pruebas están clasificadas de la siguiente manera:
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Smoke Test</t>
+      <t xml:space="preserve">
+Objetivo
+- </t>
     </r>
     <r>
       <rPr>
@@ -1184,73 +1183,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Verificación básica de los flujos principales del módulo de consultar cursos de la plataforma Choucair Academy, prueba de la lógica de navegación teniendo en cuenta la pantalla principal como el inicio de la búsqueda de los cursos según la categoría principal “Universidad Choucair”, “Cursos y Certificaciones”.
-   - </t>
+      <t>Mitigar la probabilidad de ocurrencia de errores que se puedan presentar en el módulo de búsqueda para cursos existentes</t>
     </r>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pruebas de funcionales</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Verificación de las funcionalidades de acuerdo con las características del módulo de consultar cursos, el filtro de los cursos según las categorías y subcategorías y la búsqueda general. Se prueba que no existan fallos en las respuestas que proporcione cada una de las opciones y que la visualización de los cursos o mensajes en la pantalla sean los pertinentes.
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pruebas de desempeño</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Se verifica la calidad de desempeño del aplicativo de acuerdo con la cantidad de cursos visualizados en pantalla y la capacidad del sistema para presentarlos en un tiempo especificado.
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pruebas de seguridad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Se verifica que en el campo de búsqueda el usuario no puedo ingresar caracteres especiales, teniendo en cuenta que su combinación podría presentar un riesgo de integridad para la información.
+      <t xml:space="preserve">De acuerdo con los riesgos, para la versión de la plataforma web Choucair Academy.
+Se proyecta una reunión con el cliente para tener un contexto sobre los elementos claves del negocio y los ajustes desarrollados en la plataforma, además, se realizará una revisión y análisis de los requisitos, teniendo en cuenta las restricciones y riesgos del proyecto y producto, se elaborará el diseño de casos de pruebas (qué, cuál) con el grupo de analistas para determinar las funcionalidades que son determinantes para la comprobación del módulo correspondiente y las diferentes características para validar la calidad del mismo, se establecerá un alcance, approach y se estimará el tiempo necesario para el proceso de pruebas. Teniendo claros estos parámetros se puede iniciar con las pruebas de humo en el aplicativo, lo cual permitirá entender en primera instancia el flujo del módulo y posibles fallos asociados a la aplicación. Posteriormente se realizará la verificación de las funcionalidades que representan un nivel de interacción elevado con el usuario y que determinan el flujo para la consulta de los cursos:
+   1. Verificación del Filtro de búsqueda
+   2. Validación del Campo de búsqueda
+   3. Pantalla de visualización de cursos
+   4. Navegación entre enlaces de categorías, subcategorías y cursos
+   5. Pruebas de regresión.
+Las pruebas están clasificadas de la siguiente manera:
+   - Smoke Test: Verificación básica de los flujos principales del módulo de consultar cursos de la plataforma Choucair Academy, prueba de la lógica de navegación teniendo en cuenta la pantalla principal como el inicio de la búsqueda de los cursos según la categoría principal “Universidad Choucair”, “Cursos y Certificaciones”.
+   - Pruebas de funcionales: Verificación de las funcionalidades de acuerdo con las características del módulo de consultar cursos, el filtro de los cursos según las categorías y subcategorías y la búsqueda general. Se prueba que no existan fallos en las respuestas que proporcione cada una de las opciones y que la visualización de los cursos o mensajes en la pantalla sean los pertinentes.
+   - Pruebas de Performance: Se recomienda revisar el comportamiento de la plataforma cuando hay un gran número de usuarios ingresando.
+   - Pruebas de seguridad: Se recomienda la realización de estas pruebas sobre el campo de búsqueda, ya que el usuario puede ingresar caracteres especiales, teniendo en cuenta que su combinación podría presentar un riesgo de integridad para la información.
 </t>
     </r>
     <r>
@@ -1262,7 +1211,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Gestión de Pruebas
+      <t xml:space="preserve">
+Gestión de Pruebas
 </t>
     </r>
     <r>
@@ -2091,7 +2041,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2384,6 +2334,30 @@
     <xf numFmtId="0" fontId="27" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2395,6 +2369,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2446,29 +2423,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2528,13 +2484,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>593480</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>146537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2684,22 +2640,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>299085</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9238</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Diagrama&#10;&#10;Descripción generada automáticamente">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C9FB66-9DF8-1954-0A77-B4CD3D1D4528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDE27A5-F6C8-12BF-BF38-F5662F43FC76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,8 +2677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="8858250"/>
-          <a:ext cx="9385935" cy="4972050"/>
+          <a:off x="0" y="8850313"/>
+          <a:ext cx="8391238" cy="4445000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3033,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3069,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>1</v>
@@ -3085,42 +3041,42 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="127" t="s">
+      <c r="B3" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="128" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="128" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="129">
+      <c r="D3" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="102">
         <v>2</v>
       </c>
-      <c r="G3" s="129">
+      <c r="G3" s="102">
         <v>1</v>
       </c>
-      <c r="H3" s="129">
+      <c r="H3" s="102">
         <f>F3*G3</f>
         <v>2</v>
       </c>
-      <c r="I3" s="130" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="104"/>
-      <c r="C4" s="127" t="s">
+      <c r="I3" s="103" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="113"/>
+      <c r="C4" s="100" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
@@ -3133,19 +3089,19 @@
         <v>3</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="127" t="s">
-        <v>239</v>
+      <c r="B5" s="113"/>
+      <c r="C5" s="100" t="s">
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="131" t="s">
-        <v>33</v>
+        <v>203</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="11">
         <v>2</v>
@@ -3158,19 +3114,19 @@
         <v>2</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="105"/>
-      <c r="C6" s="127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="114"/>
+      <c r="C6" s="100" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="F6" s="14">
         <v>3</v>
@@ -3183,46 +3139,46 @@
         <v>6</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="126" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="127" t="s">
+      <c r="B7" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="128" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="132" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="129">
+      <c r="D7" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="102">
         <v>3</v>
       </c>
-      <c r="G7" s="129">
+      <c r="G7" s="102">
         <v>1</v>
       </c>
-      <c r="H7" s="129">
+      <c r="H7" s="102">
         <f t="shared" ref="H7:H11" si="0">F7*G7</f>
         <v>3</v>
       </c>
-      <c r="I7" s="133" t="s">
-        <v>28</v>
+      <c r="I7" s="105" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="104"/>
-      <c r="C8" s="127" t="s">
+      <c r="B8" s="113"/>
+      <c r="C8" s="100" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="F8" s="11">
         <v>2</v>
@@ -3239,15 +3195,15 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="104"/>
-      <c r="C9" s="127" t="s">
+      <c r="B9" s="113"/>
+      <c r="C9" s="100" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F9" s="11">
         <v>3</v>
@@ -3264,15 +3220,15 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="104"/>
-      <c r="C10" s="127" t="s">
+      <c r="B10" s="113"/>
+      <c r="C10" s="100" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="22">
         <v>3</v>
@@ -3285,19 +3241,19 @@
         <v>6</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="105"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="F11" s="14">
         <v>3</v>
@@ -3315,14 +3271,14 @@
     </row>
     <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="G15" s="100" t="s">
+      <c r="E15" s="111"/>
+      <c r="G15" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="101"/>
+      <c r="H15" s="109"/>
     </row>
     <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -3410,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57352B70-E1DD-4553-B340-6DCB8A3F1E05}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,24 +3384,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -3457,7 +3413,7 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="33">
         <v>3</v>
@@ -3473,7 +3429,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="33">
         <v>3</v>
@@ -3496,7 +3452,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
@@ -3508,7 +3464,7 @@
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="33">
         <v>3</v>
@@ -3531,7 +3487,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="37"/>
@@ -3543,7 +3499,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="33">
         <v>3</v>
@@ -3559,7 +3515,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="33">
         <v>3</v>
@@ -3575,7 +3531,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="33">
         <v>3</v>
@@ -3591,7 +3547,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="33">
         <v>3</v>
@@ -3607,174 +3563,144 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="39">
-        <f>SUM(E15:E17)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="33">
-        <v>2</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="35">
-        <f>+B15*D15</f>
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36">
+        <f>SUM(C16:C21)</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="39">
+        <f>SUM(E16:E21)</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="33">
-        <v>2</v>
-      </c>
-      <c r="C16" s="33"/>
       <c r="D16" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="35">
+        <f t="shared" ref="E16:E21" si="1">C16*D16</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33">
         <v>1</v>
       </c>
-      <c r="E16" s="35">
-        <f t="shared" ref="E16:E17" si="1">+B16*D16</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="33">
-        <v>2</v>
-      </c>
-      <c r="C17" s="33"/>
       <c r="D17" s="33">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="35">
         <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36">
-        <f>SUM(C19:C24)</f>
-        <v>10</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="39">
-        <f>SUM(E19:E24)</f>
-        <v>3.8</v>
+      <c r="D18" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>55</v>
+      <c r="A19" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="33">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="35">
-        <f t="shared" ref="E19:E24" si="2">C19*D19</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33">
         <v>1</v>
       </c>
       <c r="D20" s="33">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="35">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33">
         <v>2</v>
       </c>
       <c r="D21" s="33">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="35">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>58</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="33">
-        <v>3</v>
-      </c>
-      <c r="D22" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="35">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>59</v>
-      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="33">
-        <v>1</v>
-      </c>
-      <c r="D23" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="35">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>60</v>
-      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="33">
-        <v>2</v>
-      </c>
-      <c r="D24" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="35">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
@@ -3785,24 +3711,26 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
       <c r="E26" s="45">
         <f>SUM(E27:E29)</f>
-        <v>7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="33">
         <v>2</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="33">
+        <v>1</v>
+      </c>
       <c r="D27" s="33">
         <v>0.5</v>
       </c>
@@ -3813,51 +3741,55 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="33"/>
+        <v>56</v>
+      </c>
+      <c r="B28" s="33">
+        <v>3</v>
+      </c>
       <c r="C28" s="33">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="D28" s="46">
         <v>0.5</v>
       </c>
       <c r="E28" s="47">
         <f>C28*D28</f>
-        <v>3</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B29" s="33">
         <v>2</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="33">
+        <v>2</v>
+      </c>
       <c r="D29" s="33">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="35">
-        <f t="shared" ref="E29" si="3">+B29*D29</f>
-        <v>3</v>
+        <f t="shared" ref="E29" si="2">+B29*D29</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
       <c r="E30" s="39">
-        <f>SUM(E31:E32)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <f>SUM(E31:E34)</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="B31" s="33">
         <v>3</v>
@@ -3871,133 +3803,160 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="B32" s="33">
         <v>3</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="33">
+        <v>3</v>
+      </c>
       <c r="D32" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="35">
+        <f>C32*D32*B32</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="35"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="33">
+        <v>3</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33">
         <v>0.5</v>
       </c>
-      <c r="E32" s="35">
-        <f>B32*D32</f>
+      <c r="E34" s="35">
+        <f>B34*D34</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="45">
-        <f>SUM(E2,E6,E9,E14,E18,E26,E30)</f>
-        <v>35.299999999999997</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-    </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-    </row>
-    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="45">
+        <f>SUM(E2,E6,E9,E14,E15,E26,E30)</f>
+        <v>29.2</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
-      <c r="C36" s="53">
-        <f>E33*E36</f>
-        <v>3.8829999999999996</v>
-      </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+      <c r="C38" s="53">
+        <f>E35*E38</f>
+        <v>3.2119999999999997</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55">
         <f>'Factor de Ajuste'!B16</f>
         <v>0.11</v>
       </c>
-      <c r="F36" s="56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="C37" s="57">
-        <f>E33+C36</f>
-        <v>39.183</v>
-      </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
+      <c r="C39" s="57">
+        <f>E35+C38</f>
+        <v>32.411999999999999</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="56" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="61">
-        <v>3</v>
-      </c>
+      <c r="A40" s="52"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="52"/>
-      <c r="B41" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="62">
-        <v>9</v>
-      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="62">
-        <f>D41*D40</f>
-        <v>27</v>
-      </c>
-      <c r="F42" t="s">
-        <v>75</v>
+      <c r="A42" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="115"/>
+      <c r="D42" s="61">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
-      <c r="B43" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="63">
-        <f>C37/D42</f>
-        <v>1.4512222222222222</v>
+      <c r="B43" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="115"/>
+      <c r="D43" s="62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="B44" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="115"/>
+      <c r="D44" s="57">
+        <f>C39/D42</f>
+        <v>10.804</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="115"/>
+      <c r="D45" s="63">
+        <f>D44/D43</f>
+        <v>1.2004444444444444</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4008,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897B68CF-C3FB-42BA-9434-9C60A06D8598}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,25 +3990,25 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C2" s="64"/>
-      <c r="D2" s="107" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="109"/>
+      <c r="D2" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B3" s="67">
         <v>0</v>
@@ -4058,54 +4017,54 @@
       <c r="D3" s="68">
         <v>1</v>
       </c>
-      <c r="E3" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
+      <c r="E3" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="118"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B4" s="67">
         <v>0.01</v>
       </c>
       <c r="C4" s="64"/>
-      <c r="D4" s="111">
+      <c r="D4" s="120">
         <v>2</v>
       </c>
-      <c r="E4" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115"/>
+      <c r="E4" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B5" s="67">
         <v>0.01</v>
       </c>
       <c r="C5" s="64"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B6" s="67">
         <v>0.01</v>
@@ -4114,18 +4073,18 @@
       <c r="D6" s="68">
         <v>3</v>
       </c>
-      <c r="E6" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="109"/>
+      <c r="E6" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B7" s="67">
         <v>0</v>
@@ -4141,7 +4100,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B8" s="67">
         <v>0.02</v>
@@ -4157,7 +4116,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B9" s="67">
         <v>0</v>
@@ -4173,7 +4132,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B10" s="67">
         <v>0.01</v>
@@ -4189,7 +4148,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B11" s="67">
         <v>0.01</v>
@@ -4205,7 +4164,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B12" s="67">
         <v>0.01</v>
@@ -4221,7 +4180,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B13" s="67">
         <v>0</v>
@@ -4237,7 +4196,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B14" s="67">
         <v>0.01</v>
@@ -4253,7 +4212,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B15" s="67">
         <v>0.02</v>
@@ -4269,17 +4228,17 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B16" s="70">
         <f>SUM(B3:B15)</f>
         <v>0.11</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -4292,10 +4251,10 @@
       <c r="A17" s="64"/>
       <c r="B17" s="64"/>
       <c r="C17" s="72" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -4320,506 +4279,506 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B2F0E5-6471-4CC4-B93C-4C0C792F046B}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A39" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="130" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="130"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="132"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="132"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="132"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="132"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="132"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="132"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="132"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="132"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="132"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="132"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="132"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="132"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="132"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="132"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="132"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="132"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="132"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="132"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="132"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="132"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="132"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+    </row>
+    <row r="33" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+    </row>
+    <row r="38" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="123"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="123"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="123"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="123"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="123"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="123"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120" t="s">
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-    </row>
-    <row r="33" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119" t="s">
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="124" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="124" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="125" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="124" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="125" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="124" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="124" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-    </row>
-    <row r="38" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="119" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="125"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="125"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="125"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="125"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="125"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="125"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="125"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="125"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="125"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="125"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="125"/>
-      <c r="B51" s="125"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="125"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4851,455 +4810,455 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60306786-1A89-4F4E-8933-14BCEF41428F}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="A1" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
+      <c r="A2" s="135" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="119"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="119"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
     </row>
     <row r="39" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
+      <c r="A39" s="135"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
     </row>
     <row r="40" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5307,393 +5266,423 @@
     <mergeCell ref="A2:I40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB046DB-1D33-48E7-86E9-051E6AFDCBB5}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="M1" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="N1" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="O1" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="85" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="D2" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="H2" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="I2" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="J2" s="95">
+        <v>44971</v>
+      </c>
+      <c r="K2" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="O2" s="96"/>
+    </row>
+    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="B3" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="F3" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="G3" s="93" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="H3" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="90" t="s">
+      <c r="I3" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="95">
+        <v>44971</v>
+      </c>
+      <c r="K3" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="M3" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3" s="99" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="B4" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="F4" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H4" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="95">
+      <c r="I4" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="95">
         <v>44971</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="K4" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="O4" s="99"/>
+    </row>
+    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="93" t="s">
+      <c r="B5" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="96"/>
-    </row>
-    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="I5" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="95">
+        <v>44971</v>
+      </c>
+      <c r="K5" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="91" t="s">
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" s="99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="B6" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="G6" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="H6" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="I6" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="95">
+        <v>44971</v>
+      </c>
+      <c r="K6" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="O6" s="99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="95">
+      <c r="B7" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="I7" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="95">
+        <v>44973</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7" s="99"/>
+    </row>
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="95">
         <v>44971</v>
       </c>
-      <c r="J3" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="M3" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="N3" s="99" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="98" t="s">
+      <c r="K8" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="O8" s="99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" s="95">
+      <c r="B9" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="95">
         <v>44971</v>
       </c>
-      <c r="J4" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="N4" s="99"/>
-    </row>
-    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="95">
-        <v>44971</v>
-      </c>
-      <c r="J5" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="N5" s="99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="93" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="98" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="95">
-        <v>44971</v>
-      </c>
-      <c r="J6" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="N6" s="99" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="93" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="93" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="95">
-        <v>44973</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="N7" s="99"/>
-    </row>
-    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="98" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="95">
-        <v>44971</v>
-      </c>
-      <c r="J8" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="N8" s="99" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="93" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I9" s="95">
-        <v>44971</v>
-      </c>
-      <c r="J9" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="K9" s="93"/>
+      <c r="K9" s="93" t="s">
+        <v>174</v>
+      </c>
       <c r="L9" s="93"/>
-      <c r="M9" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="N9" s="99"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" s="99"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J9 M2:M9" xr:uid="{F4EFF9D8-062C-4EA1-AC9D-88F3CAF300AC}">
-      <formula1>$AH$3:$AH$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K9 N2:N9" xr:uid="{F4EFF9D8-062C-4EA1-AC9D-88F3CAF300AC}">
+      <formula1>$AI$3:$AI$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5701,25 +5690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785F1C0-1D54-444A-80D5-CB16A1F30C40}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9B0E9A-F39F-4AAC-8A39-110191E12869}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5728,13 +5703,13 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.42578125" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -5745,78 +5720,78 @@
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E1" s="73" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G1" s="73" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H1" s="73" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J1" s="73" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K1" s="73" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L1" s="73" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M1" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="73" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="O1" s="73" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="P1" s="73" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="73" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G2" s="74" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H2" s="78"/>
       <c r="I2" s="79">
@@ -5825,7 +5800,7 @@
       <c r="J2" s="79"/>
       <c r="K2" s="79"/>
       <c r="L2" s="80" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M2" s="78">
         <v>2</v>
@@ -5837,34 +5812,34 @@
         <v>2</v>
       </c>
       <c r="P2" s="78" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Q2" s="74"/>
     </row>
     <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E3" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="78" t="s">
-        <v>142</v>
-      </c>
       <c r="G3" s="74" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H3" s="78" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I3" s="79">
         <v>44971</v>
@@ -5876,7 +5851,7 @@
         <v>44974</v>
       </c>
       <c r="L3" s="80" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M3" s="78">
         <v>1</v>
@@ -5888,31 +5863,31 @@
         <v>2</v>
       </c>
       <c r="P3" s="78" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G4" s="74" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H4" s="78"/>
       <c r="I4" s="79">
@@ -5921,7 +5896,7 @@
       <c r="J4" s="79"/>
       <c r="K4" s="79"/>
       <c r="L4" s="80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M4" s="78">
         <v>1</v>
@@ -5933,36 +5908,36 @@
         <v>2</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I5" s="79">
         <v>44973</v>
@@ -5974,7 +5949,7 @@
         <v>44977</v>
       </c>
       <c r="L5" s="80" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M5" s="78">
         <v>1</v>
@@ -5986,33 +5961,33 @@
         <v>2</v>
       </c>
       <c r="P5" s="78" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="83" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H6" s="78"/>
       <c r="I6" s="79">
@@ -6021,7 +5996,7 @@
       <c r="J6" s="79"/>
       <c r="K6" s="79"/>
       <c r="L6" s="80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M6" s="78">
         <v>4</v>
@@ -6033,10 +6008,10 @@
         <v>4</v>
       </c>
       <c r="P6" s="78" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="83" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6053,16 +6028,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E813C4-8121-4B97-9B4E-5CAA81AC2662}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>